--- a/cleaned_user_comments.xlsx
+++ b/cleaned_user_comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,112 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>comments</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The layout is more simple than before.</t>
+          <t>[NAME REDACTED] is more simple than before. My [NAME REDACTED] [NAME REDACTED]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my [NAME REDACTED]</t>
+          <t>[NAME REDACTED] asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a [NAME REDACTED] I should be cancelling my Dental Appt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great service. My name is [NAME REDACTED], can you help connect me to support?</t>
+          <t>Great service. My name is Ryan [NAME REDACTED] can you help connect me to support?</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+          <t>Used to be able to put in a [NAME REDACTED] for my Pregabalin [NAME REDACTED] receiving the current month but almost impossible to do now.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>My social security number is [SSN REDACTED] can you look up my file</t>
+          <t>[NAME REDACTED] security number is 686549847 can you look up my file</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP.</t>
+          <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP. 123789987.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Making sure my profile information is up to date. I need to change my address, it's should be [ADDRESS REDACTED], Arlington, VA 22202. </t>
+          <t xml:space="preserve">[NAME REDACTED] my profile information is up to date. I need to change my address, it's should be 123 Willow [NAME REDACTED] Arlington[NAME REDACTED] 22202. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Could not access messaging app. Just sent me an email - [EMAIL REDACTED]</t>
+          <t>Could [NAME REDACTED] messaging app. Just sent me an email - JohnDoe123@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Iâ€™m a Vietnam vet, that means Iâ€™m an older person, older people have a harder time with technology. [SSN REDACTED]. Had to have mygranddaughter helped me. Sheâ€™s not here today so Iâ€™m trying to navigate this on my own. Itâ€™s not easy. Not all of us were born With a smart phone or a tablet our hands.</t>
+          <t>The effort used by ID.ME to assist me was so great that I was thorough  "IMPRESSED!"   [NAME REDACTED].</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>I am trying to contact two separate clinics to make appointments and have not been able to do so. I am tried to make call to do same and unable to complete that task. Frustrating.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[NAME REDACTED] not access my appointments</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not [NAME REDACTED] could not accomplish task. My [NAME REDACTED] [NAME REDACTED]. </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[NAME REDACTED] much appreciate the messaging system, among other features, [NAME REDACTED] my team is so responsive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[NAME REDACTED] is VERY CONFUSING!  We are not IT [NAME REDACTED]!  Make it simple for us to send and [NAME REDACTED] from our Medical Providers!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[NAME REDACTED] change has been Chaotic and definitely NOT user friendly.</t>
         </is>
       </c>
     </row>

--- a/cleaned_user_comments.xlsx
+++ b/cleaned_user_comments.xlsx
@@ -436,70 +436,70 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[NAME REDACTED] is more simple than before. My [NAME REDACTED] [NAME REDACTED]</t>
+          <t>The layout is more simple than before. My name is [NAME REDACTED]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[NAME REDACTED] asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a [NAME REDACTED] I should be cancelling my Dental Appt</t>
+          <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great service. My name is Ryan [NAME REDACTED] can you help connect me to support?</t>
+          <t>Great service. My name is [NAME REDACTED], can you help connect me to support?</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Used to be able to put in a [NAME REDACTED] for my Pregabalin [NAME REDACTED] receiving the current month but almost impossible to do now.</t>
+          <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[NAME REDACTED] security number is 686549847 can you look up my file</t>
+          <t>My social security number is [SSN REDACTED] can you look up my file</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP. 123789987.</t>
+          <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP. [SSN REDACTED].</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[NAME REDACTED] my profile information is up to date. I need to change my address, it's should be 123 Willow [NAME REDACTED] Arlington[NAME REDACTED] 22202. </t>
+          <t xml:space="preserve">Making sure my profile information is up to date. I need to change my address, it's should be [ADDRESS REDACTED], Arlington, VA 22202. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Could [NAME REDACTED] messaging app. Just sent me an email - JohnDoe123@gmail.com</t>
+          <t>Could not access messaging app. Just sent me an email - [EMAIL REDACTED]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The effort used by ID.ME to assist me was so great that I was thorough  "IMPRESSED!"   [NAME REDACTED].</t>
+          <t>The effort used by ID.ME to assist me was so great that I was thorough  "IMPRESSED!"   Thank you.</t>
         </is>
       </c>
     </row>
@@ -513,35 +513,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[NAME REDACTED] not access my appointments</t>
+          <t>website could not access my appointments</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not [NAME REDACTED] could not accomplish task. My [NAME REDACTED] [NAME REDACTED]. </t>
+          <t xml:space="preserve">Not user friendly could not accomplish task. My name is [NAME REDACTED]. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[NAME REDACTED] much appreciate the messaging system, among other features, [NAME REDACTED] my team is so responsive.</t>
+          <t>I very much appreciate the messaging system, among other features, especially because my team is so responsive.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[NAME REDACTED] is VERY CONFUSING!  We are not IT [NAME REDACTED]!  Make it simple for us to send and [NAME REDACTED] from our Medical Providers!</t>
+          <t>This site is VERY CONFUSING!  We are not IT tech savvy!  Make it simple for us to send and receive messages from our Medical Providers!</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[NAME REDACTED] change has been Chaotic and definitely NOT user friendly.</t>
+          <t>This entire change has been Chaotic and definitely NOT user friendly.</t>
         </is>
       </c>
     </row>

--- a/cleaned_user_comments.xlsx
+++ b/cleaned_user_comments.xlsx
@@ -464,14 +464,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+          <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now. Thank you, [NAME REDACTED].</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>My social security number is [SSN REDACTED] can you look up my file</t>
+          <t xml:space="preserve">My social security number is [SSN REDACTED] can you look up my file. [NAME REDACTED]. </t>
         </is>
       </c>
     </row>
@@ -499,21 +499,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The effort used by ID.ME to assist me was so great that I was thorough  "IMPRESSED!"   Thank you.</t>
+          <t xml:space="preserve">The effort used by ID.ME to assist me was so great that I was thorough  "IMPRESSED!"   Thank you. My name is [NAME REDACTED], email me at [EMAIL REDACTED] </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I am trying to contact two separate clinics to make appointments and have not been able to do so. I am tried to make call to do same and unable to complete that task. Frustrating.</t>
+          <t>I am trying to contact two separate clinics to make appointments and have not been able to do so. I am tried to make call to do same and unable to complete that task. Frustrating. My name is [NAME REDACTED]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>website could not access my appointments</t>
+          <t xml:space="preserve">website could not access my appointments. [NAME REDACTED]. </t>
         </is>
       </c>
     </row>
@@ -527,21 +527,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I very much appreciate the messaging system, among other features, especially because my team is so responsive.</t>
+          <t xml:space="preserve">I very much appreciate the messaging system, among other features, especially because my team is so responsive. [ADDRESS REDACTED] #12, Los Angeles, CA. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>This site is VERY CONFUSING!  We are not IT tech savvy!  Make it simple for us to send and receive messages from our Medical Providers!</t>
+          <t xml:space="preserve">This site is VERY CONFUSING!  My name is [NAME REDACTED]! We are not IT tech savvy!  Make it simple for us to send and receive messages from our Medical Providers! [NAME REDACTED]. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>This entire change has been Chaotic and definitely NOT user friendly.</t>
+          <t>This entire change has been Chaotic and definitely NOT user friendly. [SSN REDACTED]</t>
         </is>
       </c>
     </row>
